--- a/biology/Origine et évolution du vivant/Disparité_(biologie)/Disparité_(biologie).xlsx
+++ b/biology/Origine et évolution du vivant/Disparité_(biologie)/Disparité_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Disparit%C3%A9_(biologie)</t>
+          <t>Disparité_(biologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La disparité caractérise le nombre de plans anatomiques différents. Elle peut caractériser aussi bien les différences anatomiques entre les embranchements que les différences anatomiques entre des espèces et des groupes d'espèces identiques ou non. Elle est souvent confondue avec la diversité, qui caractérise le nombre d'espèces dans un groupe.
  Portail origine et évolution du vivant   Portail de la biologie   Portail de l’écologie   Portail de l’anatomie                  </t>
